--- a/12/5/Índices de precios en EEUU 1948 a 2021 - Mensual.xlsx
+++ b/12/5/Índices de precios en EEUU 1948 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="888">
   <si>
     <t>Serie</t>
   </si>
@@ -2675,6 +2675,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -3032,7 +3035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E883"/>
+  <dimension ref="A1:E884"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17668,10 +17671,10 @@
         <v>271.7</v>
       </c>
       <c r="D880">
-        <v>213.7</v>
+        <v>213.8</v>
       </c>
       <c r="E880">
-        <v>216.3</v>
+        <v>215</v>
       </c>
     </row>
     <row r="881" spans="1:5">
@@ -17723,6 +17726,23 @@
       </c>
       <c r="E883">
         <v>228.5</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5">
+      <c r="A884" t="s">
+        <v>887</v>
+      </c>
+      <c r="B884">
+        <v>273</v>
+      </c>
+      <c r="C884">
+        <v>279.1</v>
+      </c>
+      <c r="D884">
+        <v>222.9</v>
+      </c>
+      <c r="E884">
+        <v>231.2</v>
       </c>
     </row>
   </sheetData>

--- a/12/5/Índices de precios en EEUU 1948 a 2021 - Mensual.xlsx
+++ b/12/5/Índices de precios en EEUU 1948 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="889">
   <si>
     <t>Serie</t>
   </si>
@@ -2678,6 +2678,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -3035,7 +3038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E884"/>
+  <dimension ref="A1:E885"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17688,10 +17691,10 @@
         <v>274</v>
       </c>
       <c r="D881">
-        <v>214.7</v>
+        <v>215.1</v>
       </c>
       <c r="E881">
-        <v>217.5</v>
+        <v>217.9</v>
       </c>
     </row>
     <row r="882" spans="1:5">
@@ -17743,6 +17746,23 @@
       </c>
       <c r="E884">
         <v>231.2</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5">
+      <c r="A885" t="s">
+        <v>888</v>
+      </c>
+      <c r="B885">
+        <v>273.6</v>
+      </c>
+      <c r="C885">
+        <v>279.5</v>
+      </c>
+      <c r="D885">
+        <v>224.5</v>
+      </c>
+      <c r="E885">
+        <v>232.9</v>
       </c>
     </row>
   </sheetData>

--- a/12/5/Índices de precios en EEUU 1948 a 2021 - Mensual.xlsx
+++ b/12/5/Índices de precios en EEUU 1948 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="890">
   <si>
     <t>Serie</t>
   </si>
@@ -2681,6 +2681,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -3038,7 +3041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E885"/>
+  <dimension ref="A1:E886"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17711,7 +17714,7 @@
         <v>218.4</v>
       </c>
       <c r="E882">
-        <v>224.4</v>
+        <v>224.9</v>
       </c>
     </row>
     <row r="883" spans="1:5">
@@ -17763,6 +17766,23 @@
       </c>
       <c r="E885">
         <v>232.9</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5">
+      <c r="A886" t="s">
+        <v>889</v>
+      </c>
+      <c r="B886">
+        <v>274.3</v>
+      </c>
+      <c r="C886">
+        <v>279.9</v>
+      </c>
+      <c r="D886">
+        <v>227.2</v>
+      </c>
+      <c r="E886">
+        <v>235.4</v>
       </c>
     </row>
   </sheetData>
